--- a/Visionkamera/QR.xlsx
+++ b/Visionkamera/QR.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus Bay Jensen\py\Projekt_3B_Visionkamera\Visionkamera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F03539-8D33-4579-A651-05E9588B2B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A48D8612-D1F9-4D1F-8DD4-4028C2E61479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="12792" yWindow="576" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="26" uniqueCount="24">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="76" uniqueCount="36">
   <si>
     <t>P X</t>
   </si>
@@ -75,30 +77,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>X a</t>
-  </si>
-  <si>
-    <t>Y a</t>
-  </si>
-  <si>
-    <t>O x</t>
-  </si>
-  <si>
-    <t>O y</t>
-  </si>
-  <si>
-    <t>a x</t>
-  </si>
-  <si>
-    <t>a y</t>
-  </si>
-  <si>
-    <t>C x</t>
-  </si>
-  <si>
-    <t>C y</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -109,14 +87,76 @@
   </si>
   <si>
     <t>R A</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>P B</t>
+  </si>
+  <si>
+    <t>P C</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>oX</t>
+  </si>
+  <si>
+    <t>oY</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>[4, (451, 624)] - [3, (268, 625)]</t>
+  </si>
+  <si>
+    <t>[100, 100] - [0, 100]</t>
+  </si>
+  <si>
+    <t>M1 - M2</t>
+  </si>
+  <si>
+    <t>-83 -351 4.228915662650603 104.2289156626506</t>
+  </si>
+  <si>
+    <t>[4, (451, 624)] - [2, (455, 422)]</t>
+  </si>
+  <si>
+    <t>[100, 100] - [100, 0]</t>
+  </si>
+  <si>
+    <t>-102 -524 5.137254901960785 105.13725490196079</t>
+  </si>
+  <si>
+    <t>x 367 y 277</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -133,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,10 +199,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,20 +520,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="O4" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="29" width="8.33203125" customWidth="1"/>
+    <col min="30" max="30" width="11.5546875" customWidth="1"/>
+    <col min="31" max="33" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -497,43 +548,55 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AG1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -550,38 +613,60 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <f>+((B3-B2)^2+(C3-C2)^2)^0.5</f>
         <v>535.68087514862805</v>
       </c>
       <c r="H2">
+        <f>+-B2+B3</f>
+        <v>535</v>
+      </c>
+      <c r="I2">
+        <f>-C2+C3</f>
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <f>ASIN(H2/G2)</f>
+        <v>1.5203718175614489</v>
+      </c>
+      <c r="K2">
         <f>+D3-D2</f>
         <v>90</v>
       </c>
-      <c r="K2">
-        <f>G2+H2</f>
-        <v>625.68087514862805</v>
+      <c r="L2">
+        <f>+E2-E3</f>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>+K2/H2</f>
-        <v>6.9520097238736449</v>
-      </c>
-      <c r="P2">
-        <f>+M2+D2</f>
-        <v>16.952009723873644</v>
-      </c>
-      <c r="U2" s="2">
-        <f>+P2+(B2*M2)</f>
-        <v>1400.4019447747291</v>
-      </c>
-      <c r="V2" s="2">
-        <f>+Q3+(C2*M3)</f>
-        <v>1314.9743696766805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <f>((K2)^2+(L2)^2)^0.5</f>
+        <v>90</v>
+      </c>
+      <c r="N2">
+        <f>ASIN(K2/M2)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="O2">
+        <f>+J2+N2</f>
+        <v>3.0911681443563452</v>
+      </c>
+      <c r="P2" s="3">
+        <f>+SIN(O2)*1</f>
+        <v>5.0403143462065293E-2</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>+COS(O2)*1</f>
+        <v>-0.99872895378533133</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -598,38 +683,60 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <f>+((B5-B3)^2+(C5-C3)^2)^0.5</f>
         <v>358.27363843855437</v>
       </c>
       <c r="H3">
-        <f>+E5-E3</f>
+        <f>+-C3+C5</f>
+        <v>358</v>
+      </c>
+      <c r="I3">
+        <f>-B3+B5</f>
+        <v>-14</v>
+      </c>
+      <c r="J3">
+        <f>ASIN(H3/G3)</f>
+        <v>1.5317100981584497</v>
+      </c>
+      <c r="K3">
+        <f>+D5-D3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>+E3-E5</f>
+        <v>-90</v>
+      </c>
+      <c r="M3">
+        <f>((K3)^2+(L3)^2)^0.5</f>
         <v>90</v>
       </c>
-      <c r="L3">
-        <f>+G3+H3</f>
-        <v>448.27363843855437</v>
-      </c>
-      <c r="M3">
-        <f>+L3/H3</f>
-        <v>4.9808182048728264</v>
-      </c>
-      <c r="Q3">
-        <f>+M3+E2</f>
-        <v>14.980818204872826</v>
-      </c>
-      <c r="U3" s="2">
-        <f>+P2+(B3*M2)</f>
-        <v>5119.7271470471287</v>
-      </c>
-      <c r="V3" s="2">
-        <f>+Q3+(M3)</f>
-        <v>19.961636409745651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <f>ASIN(K3/M3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>+J3+N3</f>
+        <v>1.5317100981584497</v>
+      </c>
+      <c r="P3" s="3">
+        <f>+COS(O3)*1</f>
+        <v>3.9076277174661542E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>+SIN(O3)*1</f>
+        <v>0.99923623060924338</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -645,16 +752,10 @@
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="U4" s="2">
-        <f>+P2+(B4*M2)</f>
-        <v>1275.2657697450036</v>
-      </c>
-      <c r="V4" s="2">
-        <f>+Q3+(C4*M3)</f>
-        <v>3232.5893785527187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -670,16 +771,10 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="U5" s="2">
-        <f>+P2+(B5*M2)</f>
-        <v>5022.3990109128981</v>
-      </c>
-      <c r="V5" s="2">
-        <f>+Q3+(C5*M3)</f>
-        <v>3232.5893785527187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="D6">
         <f>+D2</f>
         <v>10</v>
@@ -688,9 +783,9 @@
         <f>+E2</f>
         <v>10</v>
       </c>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -700,12 +795,26 @@
       <c r="C7">
         <v>413</v>
       </c>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f>IF(((D9=D10)=(U9=U10))=((D10=D11)=(U10=U11))=((D9=D11)=(U9=U11)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <f>IF(((E9=E10)=(Z9=Z10))=((E10=E11)=(Z10=Z11))=((E9=E11)=(Z9=Z11)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -721,32 +830,119 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <f>+((B10-B9)^2+(C10-C9)^2)^0.5</f>
+        <v>990</v>
+      </c>
+      <c r="H9">
+        <f>+-B9+B10</f>
+        <v>990</v>
+      </c>
+      <c r="I9">
+        <f>-C9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>ASIN(H9/G9)*180/PI()</f>
+        <v>90</v>
+      </c>
       <c r="K9">
-        <f>-B9+D9+B10-D10</f>
-        <v>990.4</v>
+        <f>+D10-D9</f>
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="L9">
+        <f>+E9-E10</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>+K9+L9</f>
+        <v>-0.39999999999999997</v>
       </c>
       <c r="N9">
-        <f>+-((R9)/K9)</f>
-        <v>-4.0387722132471726E-4</v>
-      </c>
-      <c r="P9">
-        <f>+D9+N9</f>
-        <v>0.59959612277867524</v>
-      </c>
-      <c r="R9">
-        <f>+D9-D10</f>
-        <v>0.39999999999999997</v>
+        <f>ASIN(K9/((K9^2+L9^2)^0.5))*180/PI()</f>
+        <v>-90</v>
+      </c>
+      <c r="O9">
+        <f>+J9-N9</f>
+        <v>180</v>
+      </c>
+      <c r="P9" s="2">
+        <f>+SIN(O9/180*PI())*1</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>+COS(O9/180*PI())</f>
+        <v>-1</v>
+      </c>
+      <c r="R9" s="1">
+        <f>+B9*Q$9</f>
+        <v>-10</v>
+      </c>
+      <c r="S9" s="1">
+        <f>+C9*P$9</f>
+        <v>1.22514845490862E-15</v>
+      </c>
+      <c r="T9" s="1">
+        <f>+R9+S9</f>
+        <v>-9.9999999999999982</v>
       </c>
       <c r="U9" s="1">
-        <f>+P9+(B9*N9)</f>
-        <v>0.59555735056542802</v>
+        <f>+R9-S9</f>
+        <v>-10.000000000000002</v>
       </c>
       <c r="V9" s="1">
-        <f>+Q10+(C9*O10)</f>
-        <v>5.5583628094997475E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <f>IF(U8=1,U9,IF(T8=1,T9,0))</f>
+        <v>-10.000000000000002</v>
+      </c>
+      <c r="W9">
+        <f>+B9*Q$10</f>
+        <v>1.22514845490862E-15</v>
+      </c>
+      <c r="X9">
+        <f>+C9*P$10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y9">
+        <f>+W9+X9</f>
+        <v>-9.9999999999999982</v>
+      </c>
+      <c r="Z9">
+        <f>+W9-X9</f>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>IF(Z8=1,Z9,IF(Y8=1,Y9,0))</f>
+        <v>-9.9999999999999982</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>-V9+D9+V10-D10</f>
+        <v>-989.6</v>
+      </c>
+      <c r="AC9" s="3">
+        <f>+((M9)/AB9)</f>
+        <v>4.0420371867421178E-4</v>
+      </c>
+      <c r="AD9" s="3">
+        <f>(P9*1+Q9*1-1)/2</f>
+        <v>-1</v>
+      </c>
+      <c r="AE9" s="3">
+        <f>+D9+AC9-AD9</f>
+        <v>1.6004042037186741</v>
+      </c>
+      <c r="AF9" s="1">
+        <f>+AE9+(V9*AC9)</f>
+        <v>1.5963621665319321</v>
+      </c>
+      <c r="AG9" s="1">
+        <f>+AE10+(AA9*AC10)</f>
+        <v>1.2036348949919224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -762,32 +958,111 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f>+((B11-B10)^2+(C11-C10)^2)^0.5</f>
+        <v>990</v>
+      </c>
+      <c r="H10">
+        <f>+-B10+B11</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>-C10+C11</f>
+        <v>990</v>
+      </c>
+      <c r="J10">
+        <f>ASIN(H10/G10)*180/PI()</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>+D11-D10</f>
+        <v>0</v>
+      </c>
       <c r="L10">
-        <f>-C10+E10+C11-E11</f>
-        <v>989.5</v>
-      </c>
-      <c r="O10">
-        <f>+(S10)/L10</f>
-        <v>5.0530570995452253E-4</v>
-      </c>
-      <c r="Q10">
-        <f>+E10+O10</f>
-        <v>5.0530570995452253E-4</v>
-      </c>
-      <c r="S10">
         <f>+E11-E10</f>
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="M10">
+        <f>+IF(O9&gt;=180,-(K10+L10),K10+L10)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="P10" s="2">
+        <f>+COS(O9/180*PI())</f>
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>+SIN(O9/180*PI())*1</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="R10" s="1">
+        <f>+B10*Q$9</f>
+        <v>-1000</v>
+      </c>
+      <c r="S10" s="1">
+        <f>+C10*P$9</f>
+        <v>1.22514845490862E-15</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" ref="T10:T11" si="0">+R10+S10</f>
+        <v>-1000</v>
       </c>
       <c r="U10" s="1">
-        <f>+P9+(B10*N9)</f>
-        <v>0.19571890145395798</v>
+        <f t="shared" ref="U10:U11" si="1">+R10-S10</f>
+        <v>-1000</v>
       </c>
       <c r="V10" s="1">
-        <f>+Q10+(C10*O10)</f>
-        <v>5.5583628094997475E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <f>IF(U8=1,U10,IF(T8=1,T10,0))</f>
+        <v>-1000</v>
+      </c>
+      <c r="W10">
+        <f>+B10*Q$10</f>
+        <v>1.22514845490862E-13</v>
+      </c>
+      <c r="X10">
+        <f>+C10*P$10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ref="Y10:Y11" si="2">+W10+X10</f>
+        <v>-9.9999999999998774</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:Z11" si="3">+W10-X10</f>
+        <v>10.000000000000123</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>IF(Z8=1,Z10,IF(Y8=1,Y10,0))</f>
+        <v>-9.9999999999998774</v>
+      </c>
+      <c r="AB10">
+        <f>-AA10+E10+AA11-E11</f>
+        <v>-990.4</v>
+      </c>
+      <c r="AC10">
+        <f>+-(M10)/AB10</f>
+        <v>-4.0387722132471731E-4</v>
+      </c>
+      <c r="AD10" s="3">
+        <f>(P10*1+Q10*1-1)/2</f>
+        <v>-1</v>
+      </c>
+      <c r="AE10" s="3">
+        <f>+D10+AC10-AD10</f>
+        <v>1.1995961227786753</v>
+      </c>
+      <c r="AF10" s="1">
+        <f>+AE9+(V10*AC9)</f>
+        <v>1.1962004850444623</v>
+      </c>
+      <c r="AG10" s="1">
+        <f>+AE10+(AA10*AC10)</f>
+        <v>1.2036348949919224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -801,21 +1076,852 @@
         <v>0.2</v>
       </c>
       <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="R11" s="1">
+        <f>+B11*Q$9</f>
+        <v>-1000</v>
+      </c>
+      <c r="S11" s="1">
+        <f>+C11*P$9</f>
+        <v>1.22514845490862E-13</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>-999.99999999999989</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="1"/>
+        <v>-1000.0000000000001</v>
+      </c>
+      <c r="V11" s="1">
+        <f>IF(U8=1,U11,IF(T8=1,T11,0))</f>
+        <v>-1000.0000000000001</v>
+      </c>
+      <c r="W11">
+        <f>+B11*Q$10</f>
+        <v>1.22514845490862E-13</v>
+      </c>
+      <c r="X11">
+        <f>+C11*P$10</f>
+        <v>-1000</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>-999.99999999999989</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>IF(Z8=1,Z11,IF(Y8=1,Y11,0))</f>
+        <v>-999.99999999999989</v>
+      </c>
+      <c r="AF11" s="1">
+        <f>+AE9+(V11*AC9)</f>
+        <v>1.1962004850444623</v>
+      </c>
+      <c r="AG11" s="1">
+        <f>+AE10+(AA11*AC10)</f>
+        <v>1.6034733441033926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f>IF(((D14=D15)=(U14=U15))=((D15=D16)=(U15=U16))=((D14=D16)=(U14=U16)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f>IF(((E14=E15)=(Z14=Z15))=((E15=E16)=(Z15=Z16))=((E14=E16)=(Z14=Z16)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0.5</v>
       </c>
-      <c r="U11" s="1">
-        <f>+P9+(B11*N9)</f>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <f>+((H14)^2+(I14)^2)^0.5</f>
+        <v>500</v>
+      </c>
+      <c r="H14">
+        <f>+-B14+B15</f>
+        <v>400</v>
+      </c>
+      <c r="I14">
+        <f>-C14+C15</f>
+        <v>300</v>
+      </c>
+      <c r="J14" s="4">
+        <f>ASIN(H14/G14)*180/PI()</f>
+        <v>53.13010235415598</v>
+      </c>
+      <c r="K14">
+        <f>+D15-D14</f>
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <f>+E14-E15</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>+K14+L14</f>
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <f>ASIN(K14/((K14^2+L14^2)^0.5))*180/PI()</f>
+        <v>90</v>
+      </c>
+      <c r="O14">
+        <f>+J14-N14</f>
+        <v>-36.86989764584402</v>
+      </c>
+      <c r="P14" s="2">
+        <f>+SIN(O14/180*PI())*1</f>
+        <v>-0.6</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>+COS(O14/180*PI())</f>
+        <v>0.8</v>
+      </c>
+      <c r="R14" s="1">
+        <f>+B14*Q$14</f>
+        <v>240</v>
+      </c>
+      <c r="S14" s="1">
+        <f>+C14*P$14</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <f>+R14+S14</f>
+        <v>240</v>
+      </c>
+      <c r="U14" s="1">
+        <f>+R14-S14</f>
+        <v>240</v>
+      </c>
+      <c r="V14" s="1">
+        <f>IF(U13=1,U14,IF(T13=1,T14,0))</f>
+        <v>240</v>
+      </c>
+      <c r="W14">
+        <f>+B14*Q$15</f>
+        <v>-180</v>
+      </c>
+      <c r="X14">
+        <f>+C14*P$15</f>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f>+W14+X14</f>
+        <v>-180</v>
+      </c>
+      <c r="Z14">
+        <f>+W14-X14</f>
+        <v>-180</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>IF(Z13=1,Z14,IF(Y13=1,Y14,0))</f>
+        <v>-180</v>
+      </c>
+      <c r="AB14" s="1">
+        <f>-V14+D14+V15-D15</f>
+        <v>499.5</v>
+      </c>
+      <c r="AC14" s="3">
+        <f>+((M14)/AB14)</f>
+        <v>1.001001001001001E-3</v>
+      </c>
+      <c r="AD14" s="3">
+        <f>(0.6*1+Q14*1-1)/2</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AE14" s="3">
+        <f>+D14+AC14-AD14</f>
+        <v>0.30100100100100102</v>
+      </c>
+      <c r="AF14" s="1">
+        <f>+AE14+(V14*AC14)</f>
+        <v>0.54124124124124129</v>
+      </c>
+      <c r="AG14" s="1">
+        <f>+AE15+(AA14*AC15)</f>
+        <v>1.320820820820821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>700</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <f>+((H15)^2+(I15)^2)^0.5</f>
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <f>+-B15+B16</f>
+        <v>-300</v>
+      </c>
+      <c r="I15">
+        <f>-C15+C16</f>
+        <v>400</v>
+      </c>
+      <c r="J15" s="4">
+        <f>ASIN(H15/G15)*180/PI()</f>
+        <v>-36.86989764584402</v>
+      </c>
+      <c r="K15">
+        <f>+D16-D15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>+E16-E15</f>
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <f>+IF(O14&gt;=180,-(K15+L15),K15+L15)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N15">
+        <f>ASIN(K15/((K15^2+L15^2)^0.5))*180/PI()</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>+J15-N15</f>
+        <v>-36.86989764584402</v>
+      </c>
+      <c r="P15" s="2">
+        <f>+COS(O15/180*PI())</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>+SIN(O15/180*PI())*1</f>
+        <v>-0.6</v>
+      </c>
+      <c r="R15" s="1">
+        <f>+B15*Q$14</f>
+        <v>560</v>
+      </c>
+      <c r="S15" s="1">
+        <f>+C15*P$14</f>
+        <v>-180</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" ref="T15:T16" si="4">+R15+S15</f>
+        <v>380</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" ref="U15:U16" si="5">+R15-S15</f>
+        <v>740</v>
+      </c>
+      <c r="V15" s="1">
+        <f>IF(U13=1,U15,IF(T13=1,T15,0))</f>
+        <v>740</v>
+      </c>
+      <c r="W15">
+        <f>+B15*Q$15</f>
+        <v>-420</v>
+      </c>
+      <c r="X15">
+        <f>+C15*P$15</f>
+        <v>240</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ref="Y15:Y16" si="6">+W15+X15</f>
+        <v>-180</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" ref="Z15:Z16" si="7">+W15-X15</f>
+        <v>-660</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>IF(Z13=1,Z15,IF(Y13=1,Y15,0))</f>
+        <v>-180</v>
+      </c>
+      <c r="AB15">
+        <f>-AA15+E15+AA16-E16</f>
+        <v>499.5</v>
+      </c>
+      <c r="AC15" s="3">
+        <f>+((M15)/AB15)</f>
+        <v>1.001001001001001E-3</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>(0.6*1+Q15*1-1)/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AE15" s="3">
+        <f>+D15+AC15-AD15</f>
+        <v>1.5010010010010011</v>
+      </c>
+      <c r="AF15" s="1">
+        <f>+AE14+(V15*AC14)</f>
+        <v>1.0417417417417418</v>
+      </c>
+      <c r="AG15" s="1">
+        <f>+AE15+(AA15*AC15)</f>
+        <v>1.320820820820821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>400</v>
+      </c>
+      <c r="C16">
+        <v>700</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <f>+B16*Q$14</f>
+        <v>320</v>
+      </c>
+      <c r="S16" s="1">
+        <f>+C16*P$14</f>
+        <v>-420</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="5"/>
+        <v>740</v>
+      </c>
+      <c r="V16" s="1">
+        <f>IF(U13=1,U16,IF(T13=1,T16,0))</f>
+        <v>740</v>
+      </c>
+      <c r="W16">
+        <f>+B16*Q$15</f>
+        <v>-240</v>
+      </c>
+      <c r="X16">
+        <f>+C16*P$15</f>
+        <v>560</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>320</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>-800</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>IF(Z13=1,Z16,IF(Y13=1,Y16,0))</f>
+        <v>320</v>
+      </c>
+      <c r="AF16" s="1">
+        <f>+AE14+(V16*AC14)</f>
+        <v>1.0417417417417418</v>
+      </c>
+      <c r="AG16" s="1">
+        <f>+AE15+(AA16*AC15)</f>
+        <v>1.8213213213213213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f>IF(((D18=D19)=(U18=U19))=((D19=D20)=(U19=U20))=((D18=D20)=(U18=U20)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <f>IF(((E18=E19)=(Z18=Z19))=((E19=E20)=(Z19=Z20))=((E18=E20)=(Z18=Z20)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <f>+((B19-B18)^2+(C19-C18)^2)^0.5</f>
+        <v>990</v>
+      </c>
+      <c r="H18">
+        <f>+-B18+B19</f>
+        <v>990</v>
+      </c>
+      <c r="I18">
+        <f>-C18+C19</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>ASIN(H18/G18)*180/PI()</f>
+        <v>90</v>
+      </c>
+      <c r="K18">
+        <f>+D19-D18</f>
+        <v>0.5</v>
+      </c>
+      <c r="L18">
+        <f>+E18-E19</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>+K18+L18</f>
+        <v>0.5</v>
+      </c>
+      <c r="N18">
+        <f>ASIN(K18/((K18^2+L18^2)^0.5))*180/PI()</f>
+        <v>90</v>
+      </c>
+      <c r="O18">
+        <f>+J18-N18</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <f>+SIN(O18/180*PI())*1</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>+COS(O18/180*PI())</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <f>+B18*Q$18</f>
+        <v>10</v>
+      </c>
+      <c r="S18" s="1">
+        <f>+C18*P$18</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <f>+R18+S18</f>
+        <v>10</v>
+      </c>
+      <c r="U18" s="1">
+        <f>+R18-S18</f>
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <f>+(B18*Q$18+C18*P$18)</f>
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <f>+B18*Q$19</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>+C18*P$19</f>
+        <v>10</v>
+      </c>
+      <c r="Y18">
+        <f>+W18+X18</f>
+        <v>10</v>
+      </c>
+      <c r="Z18">
+        <f>+W18-X18</f>
+        <v>-10</v>
+      </c>
+      <c r="AA18">
+        <f>+(B18*Q$19+C18*P$19)</f>
+        <v>10</v>
+      </c>
+      <c r="AB18">
+        <f>-V18+D18+V19-D19</f>
+        <v>989.5</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>+((M18)/AB18)</f>
+        <v>5.0530570995452253E-4</v>
+      </c>
+      <c r="AD18" s="3">
+        <f>(P18*1+Q18*1-1)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <f>+D18+AC18-AD18</f>
+        <v>0.50050530570995455</v>
+      </c>
+      <c r="AF18" s="1">
+        <f>+AE18+(V18*AC18)</f>
+        <v>0.50555836280949973</v>
+      </c>
+      <c r="AG18" s="1">
+        <f>+AE19+(AA18*AC19)</f>
+        <v>1.0055583628094997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <f>+((B20-B19)^2+(C20-C19)^2)^0.5</f>
+        <v>990</v>
+      </c>
+      <c r="H19">
+        <f>+-B19+B20</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>-C19+C20</f>
+        <v>990</v>
+      </c>
+      <c r="J19">
+        <f>ASIN(H19/G19)*180/PI()</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>+D20-D19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>+E20-E19</f>
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <f>+IF(O18&gt;=180,-(K19+L19),K19+L19)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="2">
+        <f>+COS(O18/180*PI())</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>+SIN(O18/180*PI())*1</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <f>+B19*Q$18</f>
+        <v>1000</v>
+      </c>
+      <c r="S19" s="1">
+        <f>+C19*P$18</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" ref="T19:T20" si="8">+R19+S19</f>
+        <v>1000</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" ref="U19:U20" si="9">+R19-S19</f>
+        <v>1000</v>
+      </c>
+      <c r="V19">
+        <f>+(B19*Q$18+C19*P$18)</f>
+        <v>1000</v>
+      </c>
+      <c r="W19">
+        <f>+B19*Q$19</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>+C19*P$19</f>
+        <v>10</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19:Y20" si="10">+W19+X19</f>
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ref="Z19:Z20" si="11">+W19-X19</f>
+        <v>-10</v>
+      </c>
+      <c r="AA19">
+        <f>+(B19*Q$19+C19*P$19)</f>
+        <v>10</v>
+      </c>
+      <c r="AB19">
+        <f>-AA19+E19+AA20-E20</f>
+        <v>989.5</v>
+      </c>
+      <c r="AC19" s="3">
+        <f>+((M19)/AB19)</f>
+        <v>5.0530570995452253E-4</v>
+      </c>
+      <c r="AD19" s="3">
+        <f>(P19*1+Q19*1-1)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <f>+D19+AC19-AD19</f>
+        <v>1.0005053057099544</v>
+      </c>
+      <c r="AF19" s="1">
+        <f>+AE18+(V19*AC18)</f>
+        <v>1.0058110156644771</v>
+      </c>
+      <c r="AG19" s="1">
+        <f>+AE19+(AA19*AC19)</f>
+        <v>1.0055583628094997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <f>+B20*Q$18</f>
+        <v>1000</v>
+      </c>
+      <c r="S20" s="1">
+        <f>+C20*P$18</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="V20">
+        <f>+(B20*Q$18+C20*P$18)</f>
+        <v>1000</v>
+      </c>
+      <c r="W20">
+        <f>+B20*Q$19</f>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f>+C20*P$19</f>
+        <v>1000</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="11"/>
+        <v>-1000</v>
+      </c>
+      <c r="AA20">
+        <f>+(B20*Q$19+C20*P$19)</f>
+        <v>1000</v>
+      </c>
+      <c r="AF20" s="1">
+        <f>+AE18+(V20*AC18)</f>
+        <v>1.0058110156644771</v>
+      </c>
+      <c r="AG20" s="1">
+        <f>+AE19+(AA20*AC19)</f>
+        <v>1.5058110156644768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>0.6</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23">
+        <f>+D23-D24</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AB23">
+        <f>-B23+D23+B24-D24</f>
+        <v>990.4</v>
+      </c>
+      <c r="AC23" s="3">
+        <f>+-((M23)/AB23)</f>
+        <v>-4.0387722132471726E-4</v>
+      </c>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3">
+        <f>+D23+AC23-AD23</f>
+        <v>0.59959612277867524</v>
+      </c>
+      <c r="AF23" s="1">
+        <f>+AE23+(B23*AC23)</f>
+        <v>0.59555735056542802</v>
+      </c>
+      <c r="AG23" s="1">
+        <f>+AE24+(C23*AC24)</f>
+        <v>0.20444624090541635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>1000</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <f>+E25-E24</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB24">
+        <f>-C24+E24+C25-E25</f>
+        <v>989.6</v>
+      </c>
+      <c r="AC24">
+        <f>+(M24)/AB24</f>
+        <v>4.0420371867421184E-4</v>
+      </c>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3">
+        <f>+D24+AC24-AD24</f>
+        <v>0.20040420371867423</v>
+      </c>
+      <c r="AF24" s="1">
+        <f>+AE23+(B24*AC23)</f>
         <v>0.19571890145395798</v>
       </c>
-      <c r="V11" s="1">
-        <f>+Q10+(C11*O10)</f>
-        <v>0.50581101566447706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K14">
-        <f>+-10+6+1000-0.2</f>
-        <v>995.8</v>
+      <c r="AG24" s="1">
+        <f>+AE24+(C24*AC24)</f>
+        <v>0.20444624090541635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1000</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25">
+        <v>0.4</v>
+      </c>
+      <c r="AF25" s="1">
+        <f>+AE23+(B25*AC23)</f>
+        <v>0.19571890145395798</v>
+      </c>
+      <c r="AG25" s="1">
+        <f>+AE24+(C25*AC24)</f>
+        <v>0.60460792239288608</v>
       </c>
     </row>
   </sheetData>
@@ -823,4 +1929,493 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6286D674-0D28-4E88-9B47-6F0DABDDE9F8}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>-E2+C2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>-E2+C2+E3-C3</f>
+        <v>355</v>
+      </c>
+      <c r="J2">
+        <f>+H2/I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>+J2+C2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <f>-F2+D2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <f>-F2+D2+F3-D3</f>
+        <v>422</v>
+      </c>
+      <c r="O2" s="6">
+        <f t="shared" ref="O2" si="0">+M2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <f>+O2+D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>455</v>
+      </c>
+      <c r="F3">
+        <v>422</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H5" si="1">-E3+C3</f>
+        <v>-355</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I5" si="2">-E3+C3+E4-C4</f>
+        <v>-87</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J2:J5" si="3">+H3/I3</f>
+        <v>4.0804597701149428</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K5" si="4">+J3+C3</f>
+        <v>104.08045977011494</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="5">-F3+D3</f>
+        <v>-422</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N5" si="6">-F3+D3+F4-D4</f>
+        <v>103</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O5" si="7">+M3/N3</f>
+        <v>-4.0970873786407767</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P5" si="8">+O3+D3</f>
+        <v>-4.0970873786407767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>268</v>
+      </c>
+      <c r="F4">
+        <v>625</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-268</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>-3.2289156626506026</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>-3.2289156626506026</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="5"/>
+        <v>-525</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="8"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>451</v>
+      </c>
+      <c r="F5">
+        <v>624</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>-351</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="2"/>
+        <v>-351</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="5"/>
+        <v>-524</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="6"/>
+        <v>-524</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>+C2</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:F6" si="9">+D2</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <f>-E5+C5</f>
+        <v>-351</v>
+      </c>
+      <c r="B7" s="6">
+        <f>-E5+C5+E4-C4</f>
+        <v>-83</v>
+      </c>
+      <c r="C7" s="6">
+        <f>+A7/B7</f>
+        <v>4.2289156626506026</v>
+      </c>
+      <c r="D7" s="6">
+        <f>+C7+C5</f>
+        <v>104.22891566265061</v>
+      </c>
+      <c r="F7" s="6">
+        <f>-F5+D5</f>
+        <v>-524</v>
+      </c>
+      <c r="G7" s="6">
+        <f>-F5+D5+F3-D3</f>
+        <v>-102</v>
+      </c>
+      <c r="H7" s="6">
+        <f>+F7/G7</f>
+        <v>5.1372549019607847</v>
+      </c>
+      <c r="I7" s="6">
+        <f>+H7+D5</f>
+        <v>105.13725490196079</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>367</v>
+      </c>
+      <c r="B20">
+        <v>277</v>
+      </c>
+      <c r="D20">
+        <f>+D7+A20*C7</f>
+        <v>1656.2409638554218</v>
+      </c>
+      <c r="E20">
+        <f>+I7+B20*H7</f>
+        <v>1528.1568627450984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFBCD72-0176-444B-843C-802ED8997759}">
+  <dimension ref="B2:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <f>+C2-C3</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <f>+B2-B3</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f>+C6/C5</f>
+        <v>0.49748743718592964</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f>+C7+B3</f>
+        <v>1.4974874371859297</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <f>+C14-C15</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <f>+B14-B15</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <f>+C18/C17</f>
+        <v>0.532258064516129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <f>+C19+B15</f>
+        <v>1.532258064516129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>